--- a/biology/Zoologie/Dryocalamus_gracilis/Dryocalamus_gracilis.xlsx
+++ b/biology/Zoologie/Dryocalamus_gracilis/Dryocalamus_gracilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryocalamus gracilis est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryocalamus gracilis est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Birmanie ;
 dans le sud de l'Inde, dans les États d'Andhra Pradesh, de Karnataka et d'Orissa ;
 au Sri Lanka.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Günther indique que le spécimen en sa possession mesure 53 cm dont 10 cm pour la queue. Son dos est blanc et présente 38 rayures transversales brun foncé, deux à trois fois plus larges que l'espace les séparant. La première se situe au niveau de la tête et la suivante au niveau de la nuque. Sa face ventrale est uniformément blanche.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Günther indique que le spécimen en sa possession mesure 53 cm dont 10 cm pour la queue. Son dos est blanc et présente 38 rayures transversales brun foncé, deux à trois fois plus larges que l'espace les séparant. La première se situe au niveau de la tête et la suivante au niveau de la nuque. Sa face ventrale est uniformément blanche.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin gracilis, « fin », lui a été donné en référence à sa morphologie[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin gracilis, « fin », lui a été donné en référence à sa morphologie.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1864 : The reptiles of British India, London, Taylor &amp; Francis, p. 1-452 (texte intégral).</t>
         </is>
